--- a/USA/state/writing/01_national_wavelet_paper/words/98_phenotyping_papers/other_studies.xlsx
+++ b/USA/state/writing/01_national_wavelet_paper/words/98_phenotyping_papers/other_studies.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rmiparks/Desktop/December xxth/words/98_phenotyping_papers/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rmiparks/git/mortality/USA/state/writing/01_national_wavelet_paper/words/98_phenotyping_papers/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28720" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -317,9 +317,6 @@
     <t>Focusses on heart disease and stroke above 45</t>
   </si>
   <si>
-    <t>Disease, age group</t>
-  </si>
-  <si>
     <t>Cosinor functions</t>
   </si>
   <si>
@@ -336,6 +333,9 @@
   </si>
   <si>
     <t>Number of years of study</t>
+  </si>
+  <si>
+    <t>Disease, age</t>
   </si>
 </sst>
 </file>
@@ -669,8 +669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -700,7 +700,7 @@
         <v>63</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>1</v>
@@ -847,7 +847,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B7">
         <v>1998</v>
@@ -856,7 +856,7 @@
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E7">
         <v>10</v>
@@ -865,13 +865,13 @@
         <v>7</v>
       </c>
       <c r="G7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -1198,13 +1198,13 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="G19" t="s">
         <v>35</v>
       </c>
       <c r="H19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I19" t="s">
         <v>96</v>
